--- a/data/processed/teste.xlsx
+++ b/data/processed/teste.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+  <si>
+    <t>count</t>
+  </si>
   <si>
     <t>ERC20_most_sent_token_type</t>
   </si>
@@ -894,13 +897,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>46.58530251882628</v>
@@ -908,7 +914,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>40.09348221241236</v>
@@ -916,7 +922,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1.687873279667619</v>
@@ -924,7 +930,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1.220462217605817</v>
@@ -932,7 +938,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1.038691249026227</v>
@@ -940,7 +946,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0.7011165930927032</v>
@@ -948,7 +954,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0.5712801869644248</v>
@@ -956,7 +962,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0.3895092183848351</v>
@@ -964,7 +970,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.3116073747078681</v>
@@ -972,7 +978,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0.2856400934822124</v>
@@ -980,7 +986,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0.2856400934822124</v>
@@ -988,7 +994,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0.1817709685795897</v>
@@ -996,7 +1002,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0.1817709685795897</v>
@@ -1004,7 +1010,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0.155803687353934</v>
@@ -1012,7 +1018,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0.155803687353934</v>
@@ -1020,7 +1026,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0.155803687353934</v>
@@ -1028,7 +1034,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0.1298364061282784</v>
@@ -1036,7 +1042,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0.1298364061282784</v>
@@ -1044,7 +1050,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0.1038691249026227</v>
@@ -1052,7 +1058,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0.1038691249026227</v>
@@ -1060,7 +1066,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0.1038691249026227</v>
@@ -1068,7 +1074,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0.1038691249026227</v>
@@ -1076,7 +1082,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0.1038691249026227</v>
@@ -1084,7 +1090,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0.1038691249026227</v>
@@ -1092,7 +1098,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0.1038691249026227</v>
@@ -1100,7 +1106,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0.1038691249026227</v>
@@ -1108,7 +1114,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>0.07790184367696702</v>
@@ -1116,7 +1122,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>0.07790184367696702</v>
@@ -1124,7 +1130,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0.07790184367696702</v>
@@ -1132,7 +1138,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>0.07790184367696702</v>
@@ -1140,7 +1146,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>0.07790184367696702</v>
@@ -1148,7 +1154,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0.07790184367696702</v>
@@ -1156,7 +1162,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0.07790184367696702</v>
@@ -1164,7 +1170,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>0.05193456245131135</v>
@@ -1172,7 +1178,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>0.05193456245131135</v>
@@ -1180,7 +1186,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>0.05193456245131135</v>
@@ -1188,7 +1194,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>0.05193456245131135</v>
@@ -1196,7 +1202,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>0.05193456245131135</v>
@@ -1204,7 +1210,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>0.05193456245131135</v>
@@ -1212,7 +1218,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>0.05193456245131135</v>
@@ -1220,7 +1226,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>0.05193456245131135</v>
@@ -1228,7 +1234,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>0.05193456245131135</v>
@@ -1236,7 +1242,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>0.05193456245131135</v>
@@ -1244,7 +1250,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>0.05193456245131135</v>
@@ -1252,7 +1258,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>0.05193456245131135</v>
@@ -1260,7 +1266,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>0.05193456245131135</v>
@@ -1268,7 +1274,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>0.05193456245131135</v>
@@ -1276,7 +1282,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>0.05193456245131135</v>
@@ -1284,7 +1290,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>0.05193456245131135</v>
@@ -1292,7 +1298,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>0.05193456245131135</v>
@@ -1300,7 +1306,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>0.05193456245131135</v>
@@ -1308,7 +1314,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>0.05193456245131135</v>
@@ -1316,7 +1322,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>0.05193456245131135</v>
@@ -1324,7 +1330,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>0.05193456245131135</v>
@@ -1332,7 +1338,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>0.05193456245131135</v>
@@ -1340,7 +1346,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>0.05193456245131135</v>
@@ -1348,7 +1354,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>0.05193456245131135</v>
@@ -1356,7 +1362,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>0.05193456245131135</v>
@@ -1364,7 +1370,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>0.05193456245131135</v>
@@ -1372,7 +1378,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>0.05193456245131135</v>
@@ -1380,7 +1386,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>0.05193456245131135</v>
@@ -1388,7 +1394,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>0.05193456245131135</v>
@@ -1396,7 +1402,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>0.05193456245131135</v>
@@ -1404,7 +1410,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>0.02596728122565567</v>
@@ -1412,7 +1418,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>0.02596728122565567</v>
@@ -1420,7 +1426,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>0.02596728122565567</v>
@@ -1428,7 +1434,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>0.02596728122565567</v>
@@ -1436,7 +1442,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>0.02596728122565567</v>
@@ -1444,7 +1450,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>0.02596728122565567</v>
@@ -1452,7 +1458,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>0.02596728122565567</v>
@@ -1460,7 +1466,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>0.02596728122565567</v>
@@ -1468,7 +1474,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>0.02596728122565567</v>
@@ -1476,7 +1482,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>0.02596728122565567</v>
@@ -1484,7 +1490,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>0.02596728122565567</v>
@@ -1492,7 +1498,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>0.02596728122565567</v>
@@ -1500,7 +1506,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>0.02596728122565567</v>
@@ -1508,7 +1514,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>0.02596728122565567</v>
@@ -1516,7 +1522,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>0.02596728122565567</v>
@@ -1524,7 +1530,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>0.02596728122565567</v>
@@ -1532,7 +1538,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>0.02596728122565567</v>
@@ -1540,7 +1546,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>0.02596728122565567</v>
@@ -1548,7 +1554,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>0.02596728122565567</v>
@@ -1556,7 +1562,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>0.02596728122565567</v>
@@ -1564,7 +1570,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>0.02596728122565567</v>
@@ -1572,7 +1578,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>0.02596728122565567</v>
@@ -1580,7 +1586,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>0.02596728122565567</v>
@@ -1588,7 +1594,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>0.02596728122565567</v>
@@ -1596,7 +1602,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>0.02596728122565567</v>
@@ -1604,7 +1610,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>0.02596728122565567</v>
@@ -1612,7 +1618,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>0.02596728122565567</v>
@@ -1620,7 +1626,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>0.02596728122565567</v>
@@ -1628,7 +1634,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>0.02596728122565567</v>
@@ -1636,7 +1642,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>0.02596728122565567</v>
@@ -1644,7 +1650,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>0.02596728122565567</v>
@@ -1652,7 +1658,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>0.02596728122565567</v>
@@ -1660,7 +1666,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>0.02596728122565567</v>
@@ -1668,7 +1674,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>0.02596728122565567</v>
@@ -1676,7 +1682,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>0.02596728122565567</v>
@@ -1684,7 +1690,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>0.02596728122565567</v>
@@ -1692,7 +1698,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>0.02596728122565567</v>
@@ -1700,7 +1706,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>0.02596728122565567</v>
@@ -1708,7 +1714,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>0.02596728122565567</v>
@@ -1716,7 +1722,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>0.02596728122565567</v>
@@ -1724,7 +1730,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>0.02596728122565567</v>
@@ -1732,7 +1738,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>0.02596728122565567</v>
@@ -1740,7 +1746,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>0.02596728122565567</v>
@@ -1748,7 +1754,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>0.02596728122565567</v>
@@ -1756,7 +1762,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>0.02596728122565567</v>
@@ -1764,7 +1770,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>0.02596728122565567</v>
@@ -1772,7 +1778,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>0.02596728122565567</v>
@@ -1780,7 +1786,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>0.02596728122565567</v>
@@ -1788,7 +1794,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>0.02596728122565567</v>
@@ -1796,7 +1802,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>0.02596728122565567</v>
@@ -1804,7 +1810,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>0.02596728122565567</v>
@@ -1812,7 +1818,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>0.02596728122565567</v>
@@ -1820,7 +1826,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>0.02596728122565567</v>
@@ -1828,7 +1834,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>0.02596728122565567</v>
@@ -1836,7 +1842,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>0.02596728122565567</v>
@@ -1844,7 +1850,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>0.02596728122565567</v>
@@ -1852,7 +1858,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>0.02596728122565567</v>
@@ -1860,7 +1866,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>0.02596728122565567</v>
@@ -1868,7 +1874,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>0.02596728122565567</v>
@@ -1876,7 +1882,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>0.02596728122565567</v>
@@ -1884,7 +1890,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>0.02596728122565567</v>
@@ -1892,7 +1898,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>0.02596728122565567</v>
@@ -1900,7 +1906,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>0.02596728122565567</v>
@@ -1908,7 +1914,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128">
         <v>0.02596728122565567</v>
@@ -1916,7 +1922,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129">
         <v>0.02596728122565567</v>
@@ -1924,7 +1930,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>0.02596728122565567</v>
@@ -1932,7 +1938,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>0.02596728122565567</v>
@@ -1940,7 +1946,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>0.02596728122565567</v>
@@ -1948,7 +1954,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>0.02596728122565567</v>
@@ -1956,7 +1962,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>0.02596728122565567</v>
@@ -1964,7 +1970,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>0.02596728122565567</v>
@@ -1972,7 +1978,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>0.02596728122565567</v>
@@ -1980,7 +1986,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>0.02596728122565567</v>
@@ -1988,7 +1994,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>0.02596728122565567</v>
@@ -1996,7 +2002,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>0.02596728122565567</v>
@@ -2004,7 +2010,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>0.02596728122565567</v>
@@ -2012,7 +2018,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>0.02596728122565567</v>
@@ -2020,7 +2026,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>0.02596728122565567</v>
@@ -2028,7 +2034,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>0.02596728122565567</v>
@@ -2036,7 +2042,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>0.02596728122565567</v>
@@ -2044,7 +2050,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>0.02596728122565567</v>
@@ -2052,7 +2058,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146">
         <v>0.02596728122565567</v>
@@ -2060,7 +2066,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>0.02596728122565567</v>
@@ -2068,7 +2074,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>0.02596728122565567</v>
@@ -2076,7 +2082,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>0.02596728122565567</v>
@@ -2084,7 +2090,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150">
         <v>0.02596728122565567</v>
@@ -2092,7 +2098,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151">
         <v>0.02596728122565567</v>
@@ -2100,7 +2106,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152">
         <v>0.02596728122565567</v>
@@ -2108,7 +2114,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>0.02596728122565567</v>
@@ -2116,7 +2122,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154">
         <v>0.02596728122565567</v>
@@ -2124,7 +2130,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>0.02596728122565567</v>
@@ -2132,7 +2138,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>0.02596728122565567</v>
@@ -2140,7 +2146,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>0.02596728122565567</v>
@@ -2148,7 +2154,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158">
         <v>0.02596728122565567</v>
@@ -2156,7 +2162,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>0.02596728122565567</v>
@@ -2164,7 +2170,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160">
         <v>0.02596728122565567</v>
@@ -2172,7 +2178,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>0.02596728122565567</v>
@@ -2180,7 +2186,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162">
         <v>0.02596728122565567</v>
@@ -2188,7 +2194,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163">
         <v>0.02596728122565567</v>
@@ -2196,7 +2202,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164">
         <v>0.02596728122565567</v>
@@ -2204,7 +2210,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165">
         <v>0.02596728122565567</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166">
         <v>0.02596728122565567</v>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167">
         <v>0.02596728122565567</v>
@@ -2228,7 +2234,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168">
         <v>0.02596728122565567</v>
@@ -2236,7 +2242,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169">
         <v>0.02596728122565567</v>
@@ -2244,7 +2250,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170">
         <v>0.02596728122565567</v>
@@ -2252,7 +2258,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171">
         <v>0.02596728122565567</v>
@@ -2260,7 +2266,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172">
         <v>0.02596728122565567</v>
